--- a/g1.xlsx
+++ b/g1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elliot\Documents\Github\Uni_ASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D3358-73F4-479B-AB8A-D2D721399938}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA3831-A8D0-4AC5-8BA8-3A69D9228109}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="3675" windowWidth="21600" windowHeight="12735" xr2:uid="{D44875D0-06F7-43A2-B0F9-916B25F2552A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D44875D0-06F7-43A2-B0F9-916B25F2552A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>unordered_map</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> with list</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -262,6 +292,7 @@
         <c:axId val="1616366480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -449,6 +480,34 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>map with list</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -605,6 +664,7 @@
         <c:axId val="1547794640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -792,6 +852,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>map with list</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -948,6 +1038,7 @@
         <c:axId val="1710156704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1134,37 +1225,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1419,6 +1480,7 @@
         <c:axId val="1710103120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3887,15 +3949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3959,15 +4021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4294,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42114FEC-1ADE-4E99-ABA6-E58775BDA7F5}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/g1.xlsx
+++ b/g1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elliot\Documents\Github\Uni_ASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA3831-A8D0-4AC5-8BA8-3A69D9228109}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B4464-BC0C-4945-B76F-314B2ABBEC98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D44875D0-06F7-43A2-B0F9-916B25F2552A}"/>
   </bookViews>
@@ -31,25 +31,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>map</t>
   </si>
   <si>
     <t>unordered map</t>
   </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>log^2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1684,6 +1697,886 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$76:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$76:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA19-4A91-A535-49EAA1516845}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$76:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$76:$C$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA19-4A91-A535-49EAA1516845}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1503905392"/>
+        <c:axId val="1431938928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1503905392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1431938928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1431938928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503905392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Serial Algorithm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Input file size by algorithm completion time in micro seconds</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$94:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$B$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>761398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1695673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5155818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19916940</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50392708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121596962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206146345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F661-414D-8683-400A412BB28B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1292303216"/>
+        <c:axId val="1443488752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1292303216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443488752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1443488752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1292303216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1844,6 +2737,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3393,6 +4366,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4049,6 +6054,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C91D29-1DA2-407D-9B78-39768424132B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEA35F5-DA1F-4DC5-8D0E-602DEE4118D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4354,10 +6431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42114FEC-1ADE-4E99-ABA6-E58775BDA7F5}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4365,6 +6442,7 @@
     <col min="1" max="1" width="44.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4770,8 +6848,223 @@
         <v>307914784</v>
       </c>
     </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>20</v>
+      </c>
+      <c r="B77">
+        <v>1.3</v>
+      </c>
+      <c r="C77">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78">
+        <v>1.48</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>40</v>
+      </c>
+      <c r="B79">
+        <v>1.6</v>
+      </c>
+      <c r="C79">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>50</v>
+      </c>
+      <c r="B80">
+        <v>1.7</v>
+      </c>
+      <c r="C80">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>60</v>
+      </c>
+      <c r="B81">
+        <v>1.78</v>
+      </c>
+      <c r="C81">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>70</v>
+      </c>
+      <c r="B82">
+        <v>1.85</v>
+      </c>
+      <c r="C82">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>1.9</v>
+      </c>
+      <c r="C83">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>1.95</v>
+      </c>
+      <c r="C84">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>100</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>500</v>
+      </c>
+      <c r="B94">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1000</v>
+      </c>
+      <c r="B95">
+        <v>12907</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2000</v>
+      </c>
+      <c r="B96">
+        <v>16074</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5000</v>
+      </c>
+      <c r="B97">
+        <v>54651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>20000</v>
+      </c>
+      <c r="B98">
+        <v>177857</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>50000</v>
+      </c>
+      <c r="B99">
+        <v>761398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100000</v>
+      </c>
+      <c r="B100">
+        <v>1695673</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>200000</v>
+      </c>
+      <c r="B101">
+        <v>5155818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>500000</v>
+      </c>
+      <c r="B102">
+        <v>19916940</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1000000</v>
+      </c>
+      <c r="B103">
+        <v>50392708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2000000</v>
+      </c>
+      <c r="B104">
+        <v>121596962</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3000000</v>
+      </c>
+      <c r="B105">
+        <v>206146345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>